--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2530487.579104938</v>
+        <v>2523470.564213228</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>315.8263535402513</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.22879305694475</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.88986550434919</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>99.66075074687581</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>118.0867093812782</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>61.22388539774919</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>110.2526535426572</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>123.5710019689118</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>214.3015170458284</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>193.3636329797266</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>118.243633554153</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>12.23273337288796</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.193684393253167</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>66.14085215535448</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>30.43484953081554</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.0804316800286</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>1.900916560956568</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>160.4576186969249</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>58.68733419778855</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056524</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>95.02525064967651</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>51.79637119526824</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>15.51067885130656</v>
       </c>
       <c r="W34" t="n">
-        <v>153.380899675072</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037972</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>56.73278719102596</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>192.6211591710421</v>
       </c>
     </row>
     <row r="44">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
         <v>1210.087414675782</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2657.524047526359</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2326.461160182788</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1973.692504912674</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1600.226746651594</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1210.087414675782</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.00345202677778</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>71.00345202677778</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>71.00345202677778</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.6519168570175</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.654643287636</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.6044479702274</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C7" t="n">
-        <v>359.6044479702274</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>359.6044479702274</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>359.6044479702274</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>359.6044479702274</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>359.6044479702274</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>359.6044479702274</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.6044479702274</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>649.5437640718976</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>291.2780654651471</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1762.972057945408</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.4025473335336</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>394.4025473335336</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>608.6909705153709</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>394.4025473335336</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>394.4025473335336</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>394.4025473335336</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>394.4025473335336</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>394.4025473335336</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>394.4025473335336</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.4025473335336</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,16 +5053,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5123,13 +5123,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324578</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324578</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324578</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.0663679705859</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.666285013068</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1432.107328986838</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1432.107328986838</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1432.107328986838</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1432.107328986838</v>
+        <v>755.3399342231696</v>
       </c>
       <c r="W16" t="n">
-        <v>1432.107328986838</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X16" t="n">
-        <v>1432.107328986838</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.314749843308</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="17">
@@ -5542,19 +5542,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>1088.787142923175</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>1396.107276203137</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.96990386717</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085867</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.6134626728254</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028587</v>
@@ -5700,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333287</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273998</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W19" t="n">
-        <v>844.0280401273998</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X19" t="n">
-        <v>844.0280401273998</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y19" t="n">
-        <v>844.0280401273998</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211724</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011341</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1296.555866665167</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>844.1942894808744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>675.2581065529675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1025.842754311114</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1025.842754311114</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W22" t="n">
-        <v>1025.842754311114</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X22" t="n">
-        <v>1025.842754311114</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y22" t="n">
-        <v>1025.842754311114</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="23">
@@ -5968,22 +5968,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6010,25 +6010,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6074,16 +6074,16 @@
         <v>549.5984374701563</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507007</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.010087623275</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.020508932908</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>3893.336020727022</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>3603.918850690061</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6505,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6554,10 +6554,10 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>874.9271131227918</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>874.9271131227918</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6724,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="W34" t="n">
-        <v>265.3924131404652</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,19 +7122,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207829</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,13 +7253,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,28 +7402,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020477</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>881.753191430675</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>712.8170085027681</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7578,13 +7578,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119723</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119723</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119723</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1330.535321472222</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V43" t="n">
-        <v>1330.535321472222</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W43" t="n">
-        <v>1330.535321472222</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X43" t="n">
-        <v>1102.545770574205</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="Y43" t="n">
-        <v>881.753191430675</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7833,19 +7833,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627436</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>38.86002301949887</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>169.2863157167174</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>234.4116509503158</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445214</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,19 +9722,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>253.7371603504729</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>230.7151863772029</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>306.1147370139967</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>167.5992468090493</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.3909689588416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7799578282488</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>221.7027937930125</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.75154850190873</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3364358376208</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>125.7797337016524</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>227.8356641388025</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.3938331833848</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>130.6844047393606</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>173.9132841937689</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>236.6269644725215</v>
       </c>
       <c r="W34" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>64.30500338171991</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>229.5045652075514</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>25.96349418105265</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815867.4483931669</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="G2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.136619678</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196783</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196773</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196779</v>
       </c>
       <c r="M2" t="n">
         <v>566992.136619678</v>
@@ -26352,10 +26352,10 @@
         <v>566992.1366196781</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26438,7 +26438,7 @@
         <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26450,7 +26450,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.632377572</v>
+        <v>-234346.6323775717</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.2468369724</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369728</v>
+        <v>355621.2468369729</v>
       </c>
       <c r="E6" t="n">
-        <v>-65200.89542737413</v>
+        <v>-66175.48668709563</v>
       </c>
       <c r="F6" t="n">
-        <v>459959.1410495221</v>
+        <v>458984.5497898008</v>
       </c>
       <c r="G6" t="n">
-        <v>459959.1410495224</v>
+        <v>458984.5497898006</v>
       </c>
       <c r="H6" t="n">
-        <v>459959.1410495222</v>
+        <v>458984.5497898008</v>
       </c>
       <c r="I6" t="n">
-        <v>459959.1410495223</v>
+        <v>458984.5497898008</v>
       </c>
       <c r="J6" t="n">
-        <v>283535.92185693</v>
+        <v>282561.3305972079</v>
       </c>
       <c r="K6" t="n">
-        <v>459959.1410495216</v>
+        <v>458984.5497898009</v>
       </c>
       <c r="L6" t="n">
-        <v>459959.1410495222</v>
+        <v>458984.5497898007</v>
       </c>
       <c r="M6" t="n">
-        <v>325158.1258156851</v>
+        <v>324183.5345559633</v>
       </c>
       <c r="N6" t="n">
-        <v>459959.1410495224</v>
+        <v>458984.5497898008</v>
       </c>
       <c r="O6" t="n">
-        <v>459959.141049522</v>
+        <v>458984.5497898007</v>
       </c>
       <c r="P6" t="n">
-        <v>459959.1410495223</v>
+        <v>458984.5497898008</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541005</v>
@@ -26767,16 +26767,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>66.90748812322931</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>211.9953744513446</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>129.54409714222</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>186.6211234951019</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>264.6471322822024</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>308.5072152807198</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>35.16839448027409</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>101.4641034891725</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>167.6288530264334</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>192.874305676327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>28.42155842600488</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30665,7 +30665,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-2.147365782211761e-12</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>245.9534379510236</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>418.5440206727418</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879393</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>516.7753531914241</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>586.931733748486</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>437.8086013087276</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507419</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
@@ -37405,7 +37405,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700209</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2523470.564213228</v>
+        <v>2528409.82706226</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.8263535402513</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>343.372584904993</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>351.2391879744742</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>61.22388539774919</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>110.2526535426572</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>71.65284835004753</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>214.3015170458284</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>4.505119419000475</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229328</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095418</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.23273337288796</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>27.03469177015965</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8.070639042240128</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>30.43484953081554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>1.900916560956568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>58.68733419778855</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>122.6519788371604</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>101.1426547140094</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -3003,13 +3003,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>15.51067885130656</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056512</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.6211591710421</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2323.103882821189</v>
+        <v>2251.981069572904</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>1883.018552632492</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1524.752854025742</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1138.964601427497</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>727.9786966378899</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4375,7 +4375,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2072.529454785695</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>819.715945170047</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>408.7300403804394</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2459.129294849817</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>2459.129294849817</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.9658229629848</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C7" t="n">
-        <v>210.9658229629848</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D7" t="n">
-        <v>210.9658229629848</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E7" t="n">
-        <v>210.9658229629848</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X7" t="n">
-        <v>210.9658229629848</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.9658229629848</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.506281012309</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>649.5437640718976</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>291.2780654651471</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012309</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641983</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598703</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5020,37 +5020,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.608501093095</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.688491008647</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.688491008647</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>982.5598522222051</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>727.8753640163183</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>727.8753640163183</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>727.8753640163183</v>
       </c>
       <c r="Y13" t="n">
-        <v>221.1079791745888</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155902</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N15" t="n">
-        <v>2013.406634128704</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O15" t="n">
-        <v>2292.946699347402</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>755.3399342231696</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>465.9227641862091</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>465.9227641862091</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1186.001039296941</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1186.001039296941</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>896.58386925998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>895.8230080122524</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,43 +5968,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6013,22 +6013,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.010087623275</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,37 +6238,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6405,31 +6405,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6472,7 +6472,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6651,10 +6651,10 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
         <v>614.6238123952637</v>
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1059.543492887903</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>770.1263228509424</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,19 +7122,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706316</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>241.980548233671</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7253,13 +7253,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609662</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550793</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181187</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201014</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201014</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020477</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028587</v>
@@ -7578,13 +7578,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7602,19 +7602,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609662</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550793</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>441.9005583181187</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>441.9005583181187</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270188</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719071</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>38.86002301949887</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>423.337678916511</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>230.7151863772029</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>52.4973336130526</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>306.1147370139967</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.5992468090493</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>82.92966063363315</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>159.1761820563877</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>221.7027937930125</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3364358376208</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>227.8356641388025</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>103.0576765518767</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>124.5670006750277</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>236.6269644725215</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338591</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.30500338171991</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.96349418105265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="16">
@@ -26319,10 +26319,10 @@
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196781</v>
@@ -26331,31 +26331,31 @@
         <v>566992.1366196782</v>
       </c>
       <c r="H2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="O2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196782</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26435,10 +26435,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26450,7 +26450,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26527,43 +26527,43 @@
         <v>355621.2468369728</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369729</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="E6" t="n">
-        <v>-66175.48668709563</v>
+        <v>-65298.35455334545</v>
       </c>
       <c r="F6" t="n">
-        <v>458984.5497898008</v>
+        <v>459861.6819235503</v>
       </c>
       <c r="G6" t="n">
-        <v>458984.5497898006</v>
+        <v>459861.6819235504</v>
       </c>
       <c r="H6" t="n">
-        <v>458984.5497898008</v>
+        <v>459861.68192355</v>
       </c>
       <c r="I6" t="n">
-        <v>458984.5497898008</v>
+        <v>459861.6819235501</v>
       </c>
       <c r="J6" t="n">
-        <v>282561.3305972079</v>
+        <v>283438.4627309573</v>
       </c>
       <c r="K6" t="n">
-        <v>458984.5497898009</v>
+        <v>459861.6819235501</v>
       </c>
       <c r="L6" t="n">
-        <v>458984.5497898007</v>
+        <v>459861.6819235504</v>
       </c>
       <c r="M6" t="n">
-        <v>324183.5345559633</v>
+        <v>325060.6666897132</v>
       </c>
       <c r="N6" t="n">
-        <v>458984.5497898008</v>
+        <v>459861.6819235501</v>
       </c>
       <c r="O6" t="n">
-        <v>458984.5497898007</v>
+        <v>459861.6819235498</v>
       </c>
       <c r="P6" t="n">
-        <v>458984.5497898008</v>
+        <v>459861.6819235504</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26767,16 +26767,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.90748812322931</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>70.41158511580198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>62.54498204632074</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>308.5072152807198</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>35.16839448027409</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>154.0568070389896</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>167.6288530264334</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>323.2471390511344</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609831</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396482</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624584</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>245.9534379510236</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8086013087276</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187098</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>385.6919070110654</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349858</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034995</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>555.3724419700209</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
